--- a/Web Crawling/TwitterData.xlsx
+++ b/Web Crawling/TwitterData.xlsx
@@ -14,537 +14,543 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="177">
-  <si>
-    <t>Sello Pazilo Mathe</t>
-  </si>
-  <si>
-    <t>JPMorgan race tomorrow and your buddy hasn't been to gym in forever and thereafter need to drive to the Vaal. I think I need a driver for tomorrow in advance. Let's get healthy</t>
-  </si>
-  <si>
-    <t>Nox</t>
-  </si>
-  <si>
-    <t>Legit took me 1hr to walk 5kms JPMorgan</t>
-  </si>
-  <si>
-    <t>KonnieFrey</t>
-  </si>
-  <si>
-    <t>CHASE BANK DOES NOT HONOR THEIR FRAUD PROTECTION GUARANTEE. chase chasebank jpmorgan jpmorganchase playtika slotomania fraud theft southwestairlines rapidrewardscard lawyer attorney betterbusinessbureau customer credit account consumercredit bank dispute pic.twitter.com/v2nyPs5o57</t>
-  </si>
-  <si>
-    <t>N1njaWTF</t>
-  </si>
-  <si>
-    <t>.jpmorgan tried to patent their own version of blockchain tech and it failed 175 times Now I know why they keep hating on Bitcoin! btc btc tradewar jpmorgan idiots</t>
-  </si>
-  <si>
-    <t>Mass Disturbance</t>
-  </si>
-  <si>
-    <t>Kushner family real estate business secures loan from JPMorgan Chase amid White House probe</t>
-  </si>
-  <si>
-    <t>Raz</t>
-  </si>
-  <si>
-    <t>Thanks for letting us help build up the youth in our community_JPMC Brooklyn Hub.JPMorgan</t>
-  </si>
-  <si>
-    <t>Veronica</t>
-  </si>
-  <si>
-    <t>Raz0626 THANK U for being the spark to this priceless experience for FY! JPMorgan</t>
-  </si>
-  <si>
-    <t>BoB T, Buy-and-Hold</t>
-  </si>
-  <si>
-    <t>This is what Putin does to successful business men in Russia....So now you got you tax break, and you think trump is your friend. kock mercer zuck GoldmanSachs JPMorgan Bezos This is next....</t>
-  </si>
-  <si>
-    <t>CAMCO Technology</t>
-  </si>
-  <si>
-    <t>BUY/ADD Boulder Growth &amp; Income closed-end fund: BIF Largest positions:BerkshireHathaway Inc Class A BRKJPMorgan Chase &amp; Co JPMBerkshireHathaway Inc Class BCiscoSystems Inc CSCOCaterpillar Inc. CATWellsFargo &amp; Co WFCYumBrands Inc YUM</t>
-  </si>
-  <si>
-    <t>Woke 'n Broke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPMorgans blockchain head is leaving to start her own business </t>
-  </si>
-  <si>
-    <t>The Banker</t>
-  </si>
-  <si>
-    <t>Gatwe cordesa ke "bus stop dance" at JPMorgan run. Lol</t>
-  </si>
-  <si>
-    <t>Kentot Luree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The women driving JPMorgans EMEA push </t>
-  </si>
-  <si>
-    <t>FUREEous Youth</t>
-  </si>
-  <si>
-    <t>Liverpool under-23s suffer late agony as Premier League 2 title hopes fade athletics seo JPMorgan Banff</t>
-  </si>
-  <si>
-    <t>ChuckYou2</t>
-  </si>
-  <si>
-    <t>Michael O'Grady</t>
-  </si>
-  <si>
-    <t>Has JPMorgan not heard Kushner has been scrambling for appx 2 years now to re-pay the loan on 666 NY property? Have they not paid attn as to how much trouble Jared has filling out paperwork truthfully or completely? Whatever money they loan him, kiss it goodbye forever.</t>
-  </si>
-  <si>
-    <t>IntraVires Health</t>
-  </si>
-  <si>
-    <t>Kushner, CIM to get 600 million JPMorgan loan for Brooklyn site- Closing took months so bank could assess deals risk - Twenty-one story tower will go up as NYC real estate slows  via business</t>
-  </si>
-  <si>
-    <t>Meddevicetracker</t>
-  </si>
-  <si>
-    <t>Home health, hospice, and telemedicine: 3 common early targets of the kindredhealth humana walmart AND amazon berkshire jpmorgan business venture models.</t>
-  </si>
-  <si>
-    <t>Don't miss out on this comprehensive review of all the presentations from the conference, complied by our analysts, with key points and expert insight, for you to download, for free. JPMorgan JPM biotech</t>
-  </si>
-  <si>
-    <t>IT Leadership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popular on The Banker this week: The women behind JPMorgan's EMEA transaction banking business </t>
-  </si>
-  <si>
-    <t>I Hate BankofAmerica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Former JPMorgan CIO DanaDeasy To Lead IT at Defense Department </t>
-  </si>
-  <si>
-    <t>Medtech Insight</t>
-  </si>
-  <si>
-    <t>Fines and Crimes, Part 1: Why Wall Street 'Banksters' aren't deterred by fines (Commentary)  BankofAmerica WellsFargo JPMorgan USBank EricHolder LorettaLynch AidingandAbetting BanksterCrimes ForeclosureFraud SecuritiesFraud racketeering</t>
-  </si>
-  <si>
-    <t>Pell Center</t>
-  </si>
-  <si>
-    <t>James Henry Anderson</t>
-  </si>
-  <si>
-    <t>Hey SalveRegina students, staff &amp; faculty we have another roundtable coming up on Apr 10 at 11:45 am w/ Dr. Myra Edelstein. The topic of discussion, "Is Healthcare Ready for Disruption?" AI cyber technology healthalliance Amazon Berkshire JPMorgan</t>
-  </si>
-  <si>
-    <t>The Financial Revolutionist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaime Carrasco on the Canadian BNN channeltalks Gold price manipulation &amp; JPMorgan's recordsized Silver Bullion hoard motivations.Quotes chair of CME COMEX,Mr. Terry Duffy's interview on PM prices from summer 2017.Starts at the 9:50 mark -&gt; </t>
-  </si>
-  <si>
-    <t>dumbwire TechNews</t>
-  </si>
-  <si>
-    <t>Alexa, is my institutional sales job safe? See The FR on the ongoing saga of innovation on the trading floor JPMorgan Amazon fintech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPMorgans Blockchain Lead Quits to Kickstart Her Own Startup </t>
-  </si>
-  <si>
-    <t>tekstarter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Former Lead Of JPMorgans Blockchain Arm Amber Baldet To Embark On New Venture </t>
-  </si>
-  <si>
-    <t>William Paulsen</t>
-  </si>
-  <si>
-    <t>Asset TV</t>
-  </si>
-  <si>
-    <t>How They Stole Your Future 100 Years AgoFalseHistorySchoolsMediaBanksJPMorganJPMorganChaseRockefellerWARWW1VietnamSheepleAmericansSacrificedSacrificedAmericansBritishGovernmentAmericanGovernment  Click  for VID</t>
-  </si>
-  <si>
-    <t>CurrencyTransfer.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPMorgan Claverhouse Trust adds disruptive high-growth tech stocks to their portfolio, but will the gutsy move pay off? </t>
-  </si>
-  <si>
-    <t>Cyrus The Great</t>
-  </si>
-  <si>
-    <t>JPMorgan brings Amazon's Alexa to Wall Street trading floors  via business</t>
-  </si>
-  <si>
-    <t>Wackedout1</t>
-  </si>
-  <si>
-    <t>Quote of The Day - J.P. Morgan Gold Money JPMorgan</t>
-  </si>
-  <si>
-    <t>Fadzli Rukaya</t>
-  </si>
-  <si>
-    <t>4 those that missed it "Here is a small list of Advertisers for Facebook that should be boycottedFord Hsbc ANHEUSER McDonalds Nike TurnerTv JPMorgan CITIBANK Starbucks Loreal Disney Dell Samsung Nestle Ebay Verizon EA ProcterAndGamble" deletefacebook</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="179">
+  <si>
+    <t>alex schaefer</t>
+  </si>
+  <si>
+    <t>Terrorists: NYFed_News USTreasury benbernanke EricHolder BankofAmerica WellsFargo Citibank ChaseSupport art</t>
+  </si>
+  <si>
+    <t>Dean Stallone</t>
+  </si>
+  <si>
+    <t>Chase, chasesupport, really happy about all your bank profits. How about getting your brand new web portal working? Id like to pay my bills now -</t>
   </si>
   <si>
     <t>SiriusXMDoesntCare</t>
   </si>
   <si>
-    <t>XIAOLIN Personality Reflective Glasses Neutral Glasses Outdoor Glasses Anti-radiation Glasses UV Sunglasses  Skegness fitgirl JPMorgan KATYPERRY 41</t>
-  </si>
-  <si>
-    <t>Please like and retweet if you think JPMorgan Chase is the world's worst bank. Customer service is AWFUL. Employees ARROGANT. Rosarito Roseanne ReadyPlayerOne NationalJoeDay WorldTheatreDay TuesdayThoughts</t>
-  </si>
-  <si>
-    <t>Rich Tehrani</t>
-  </si>
-  <si>
-    <t>I hope everyone considering divorce who banks with JPMorgan Chase dump their accounts. Their customer service is AWFUL. Employees ARROGANT. Useless Roseanne jimmykimmel nbcnews CBSLA</t>
-  </si>
-  <si>
-    <t>Carmen Galbraith</t>
-  </si>
-  <si>
-    <t>JPMorgan mulls spin-off of blockchain project Quorum: sources</t>
-  </si>
-  <si>
-    <t>Lorenzo H. Gmez</t>
-  </si>
-  <si>
-    <t>jpmorgan share interesting stocks to watch</t>
-  </si>
-  <si>
-    <t>Bonny Masiane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPMorgan lleva Alexa de Amazon a operadores de WallStreet </t>
-  </si>
-  <si>
-    <t>Nik Marshall</t>
-  </si>
-  <si>
-    <t>JPMorgan JPMCC happiness is</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Jamie Dimon backs Trump's 'legitimate complaints' over trade  Dimon JPMorgan Trade China US Trump chooseCGWM</t>
-  </si>
-  <si>
-    <t>Shelbourne Capital</t>
-  </si>
-  <si>
-    <t>JamieDimon devotes several paragraphs to the JPM stock price and suddenly ends by saying they do not worry about their stock prices. LOL. JPMorgan</t>
-  </si>
-  <si>
-    <t>Christopher Drayton</t>
-  </si>
-  <si>
-    <t>Jamie Dimon's much awaited letter to JPMorgan shareholders is very interesting. I will be doing a video talking about this and what he thinks about the current economy.</t>
-  </si>
-  <si>
-    <t>Cointime US</t>
-  </si>
-  <si>
-    <t>And my Great Great Great Grandfather Howard Luther Chase was a Bishop and Chase couldnt have been known as Catholic Founded. JPMorgan I am the sole Heir. Scroll down far enough WallSt Finance NewYorkCity Boston WhiteHouse</t>
-  </si>
-  <si>
-    <t>Teresa Haas</t>
-  </si>
-  <si>
-    <t>Amber Baldet, Blockchain Lead at JPMorgan, is Leaving JPMorgan's Blockchain Project for Her Own Startup  Blockchain JPMorgan</t>
-  </si>
-  <si>
-    <t>cherrybomber</t>
-  </si>
-  <si>
-    <t>.SalveRegina students, faculty &amp; staff, join us for PellCenter Roundtable on Apr 10, 11:45 am w/ Dr. Myra Edelstein. The topic is "Is Healthcare Ready for Disruption?" AI cyber technology healthalliance Amazon Berkshire JPMorgan</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>TSUNAMI BOMB, a rival for NUCLEAR WEAPONS    tpp DNlive JPMorgan Murdock</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>JPMorgan Blockchain Lead Quits to Kickstart Her Own Startup  thomaspower Stevewal63 jonnyfry175 rosspower WilliamDevine10 MattLightbourn1 TeamBlockchain</t>
-  </si>
-  <si>
-    <t>TheArchitect</t>
-  </si>
-  <si>
-    <t>Coinceo</t>
-  </si>
-  <si>
-    <t>lithium demand increasing AVZ largest supply globally yet to be taken up! HuayouCobalt already major investor with massive interest from China And jpmorgan said there would be oversupply lol what fools asx ausbiz dow finance jpmorgan RealEstate rio bhp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithium demand to triple by 2025, CRU expects </t>
-  </si>
-  <si>
-    <t>Arnulfo Cantarero</t>
-  </si>
-  <si>
-    <t>Bitcoin could rival gold in terms of reliability, long-term wealth: JP Morganjpmorgan gold bitcoin longterm lambo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's rare to see a conventional trust buy a position in a flagship fund of a rival group, will the gamble pay off for JPMorgan Claverhouse Trust? </t>
-  </si>
-  <si>
-    <t>Wis Abdelfattah</t>
-  </si>
-  <si>
-    <t>The roughrider himself, Teddy Roosevelt. Damn, if you ever want to read an inspirational story, pick up his biography. This is a man that took crap from no one. Even jpmorgan couldn't bully him.teddyroosevelt inspiration tough nevergiveup hero rough fighter newyorker</t>
-  </si>
-  <si>
-    <t>Troy Jensen</t>
-  </si>
-  <si>
-    <t>Here is a small list of Advertisers for Facebook that should be boycottedFord Hsbc ANHEUSER McDonalds Nike TurnerTv JPMorgan CITIBANK Starbucks Loreal Disney Dell Samsung Nestle Ebay Verizon EA ProcterAndGamble deletefacebook</t>
-  </si>
-  <si>
-    <t>Tech in Asia</t>
-  </si>
-  <si>
-    <t>Balmain Womens S8FS131PCSM132 Red Leather Handbag  Ringwood hungry JPMorgan EmmaWatson 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Rockstar of Wall Street is adding bankers at the branch level....thats a good sign for the economy as a whole. JPM JPMorgan </t>
-  </si>
-  <si>
-    <t>BlockchainLink</t>
-  </si>
-  <si>
-    <t>How China's richest man built a tech empire bigger than Facebook.china chinanews chinese ponyma facebook alibaba tencent jpmorgan success inspiration tech techinasia</t>
-  </si>
-  <si>
-    <t>Anicca Crypto</t>
-  </si>
-  <si>
-    <t>No Chase Family. Pipes as logo. Built from foundation. Chase Sapphire - September Birth!!! JPMorgan</t>
-  </si>
-  <si>
-    <t>Cryptel Media</t>
-  </si>
-  <si>
-    <t>Former Lead Of JPMorgans Blockchain Arm Amber Baldet To Embark On New Venture  blockchain jpmorgan</t>
-  </si>
-  <si>
-    <t>DinarDirham</t>
-  </si>
-  <si>
-    <t>Ripple fanboys be like 8-O jpmorgan blockchain ethereum crypto smartcontracts interbank banking fintech ripplecoin Ripplenews quorum xrp enterpriseblockchain</t>
-  </si>
-  <si>
-    <t>Uwe Muegge</t>
-  </si>
-  <si>
-    <t>Blockchain Exec Parting Ways with JPMorgan to Launch Venture  Turn away from the dark side. jpmorgan bitcoin blockchain cryptelmedia ethereum movingforward xem</t>
-  </si>
-  <si>
-    <t>PennyStockGeeks</t>
-  </si>
-  <si>
-    <t>JPMorgan Chase, Annual Report 2017, shares their thoughts on disruptive technologies, like cryptocurrencies.</t>
-  </si>
-  <si>
-    <t>iFLYTEK Developer</t>
-  </si>
-  <si>
-    <t>JPMorgan Chase seek a Translation VendorManager (ideally w/ Spanish) in Columbus, Ohio  jobs translator inhouse fulltime traductor t9njobs t9n xl8</t>
-  </si>
-  <si>
-    <t>Luke astor</t>
-  </si>
-  <si>
-    <t>HUTN **BREAKING NEWS** CEO Buys 3.225 Million HUTN Shares!  UNDERVALUED JPMORGAN LOWFLOAT HUTN</t>
-  </si>
-  <si>
-    <t>BitNovosti En</t>
-  </si>
-  <si>
-    <t>DailyNews Mar. 28, 2018 (GMT+8)Chinas commerce ministry says reviewing the proposed acquisition of Toshiba Corps chip business by a consortium led by U.S. private equity firm Bain Capital.technology Technologies Blockchain Apple JPMorgan</t>
-  </si>
-  <si>
-    <t>startablish</t>
-  </si>
-  <si>
-    <t>It keeps on happening the crypto market keeps on going stronger despite obstacles, it's the future we all want to see come through jpmorgan TradeWar forextrade</t>
-  </si>
-  <si>
-    <t>OnCoreHCM</t>
-  </si>
-  <si>
-    <t>Top JPMorgan blockchain executive quits the job  blockchain expert innovations JPMorgan platform quorum BitNovostiEn</t>
-  </si>
-  <si>
-    <t>crazycrypto</t>
-  </si>
-  <si>
-    <t>Spotify opened on the New York Stock Exchange at 165.90Stay up-to-date with a quick snap of the latest global news in 30sec.innovationandtech newssnap trending startups bigdata spotify apple google chrome cryptomining jpmorgan blockchain microsoft ai 24hin30sec</t>
-  </si>
-  <si>
-    <t>DANIEL BRUMMITT</t>
-  </si>
-  <si>
-    <t>Good question Adweek ..... "Can Retailers Solve America's Long-Running Healthcare Problem?"  healthcare Walmart Humana CVS Aetna Albertsons RiteAid Amazon JPMorgan BerkshireHathaway</t>
-  </si>
-  <si>
-    <t>According to Bloomberg News, a memorandum by JPMorgan showed their Blockchain executive Amber Baldet will leave the job search for "business opportunities" .</t>
-  </si>
-  <si>
-    <t>Millennium Alliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blockchain HealthAlliance Follows Amazon-Berkshire-JPMorgan Pact </t>
-  </si>
-  <si>
-    <t>Finscreener.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPMorgan Claverhouse trust added disruptive high-growth tech stocks to the UK equity portfolio, how are investors reacting? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPMorgan blockchain chief is stepping out on her own to start her own company. </t>
-  </si>
-  <si>
-    <t>Crypto Briefing</t>
-  </si>
-  <si>
-    <t>Top 10 DowJones Stocks with the highest Price Range Ratio Price Range Ratio DowJones Intel Boeing Microsoft Visa Nike JPMorgan Cisco Apple Caterpillar UnitedHealth</t>
-  </si>
-  <si>
-    <t>Nullatech</t>
-  </si>
-  <si>
-    <t>Coding prodigy and leader of the Quorum project at JPMorgan, AmberBaldet is reportedly leaving the bank to start her own venture, hot on the heels of speculation that Quorum itself may be spun off.</t>
-  </si>
-  <si>
-    <t>Semionette</t>
-  </si>
-  <si>
-    <t>Krishna Attri</t>
-  </si>
-  <si>
-    <t>Nullatech Stock Prediction for marketNullatech AI has analyzed jpmorgan and microsoft See more details:  JPMMSFTmicrosoftjpmorgannullatech_Alnullatechfintechmachine_learningArtificial_Intelligenceprediction</t>
-  </si>
-  <si>
-    <t>ForexLive did you serve forex signal from institutional bank , like MorganStanley Nomura Barclay JPMorgan ... ?</t>
-  </si>
-  <si>
-    <t>Tinkerbell</t>
-  </si>
-  <si>
-    <t>Congratulations jpmorgan on completing 49 years of being trading in Stock Exchanges. JPMorgan was first time traded on 01 April 1969..NYSE NASDAQ DJIA CAC40 FTSE100</t>
-  </si>
-  <si>
-    <t>Alcuin Bramerton</t>
-  </si>
-  <si>
-    <t>Primal Digest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depository Silver Stocks Silver JPmorgan JPM MarketManipulation </t>
-  </si>
-  <si>
-    <t>Arab News</t>
-  </si>
-  <si>
-    <t>G7 Banks: Share price performance chart (10 months):  1ab JPM CS BCS UBS C SCBFF SCGLY DB JPMorgan CreditSuisse Barclays Citigroup StandardChartered SocGen DeutscheBank gold G20 EU CDU IMF ECB BoE Fed MoneyLaundering DC NYC LA</t>
-  </si>
-  <si>
-    <t>JpMorgan offers Amazon Alexa functionality to its WallStreet clients via cnbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaudiArabias Crown Prince MohammedbinSalman met the CEOs of MorganStanley and JPMorgan on Thursday in New York, state news agency SPA reported: </t>
-  </si>
-  <si>
-    <t>HUTN 1.12- With the CEO investing 1 Million  of his own money into the company that pretty much sums it up..... UNDERVALUED JPMORGAN LOWFLOAT HUTN</t>
-  </si>
-  <si>
-    <t>Dividendcake</t>
-  </si>
-  <si>
-    <t>HUTN 1.14s going! Recent JP MORGAN Financing indicates 100% transparency with this company. Tiny float 7 &amp; clean level 2. Potential up to 10 per share projected this year. Stay tuned! UNDERVALUED JPMORGAN LOWFLOAT HUTN</t>
-  </si>
-  <si>
-    <t>Blockchain Expert</t>
-  </si>
-  <si>
-    <t>HUTN .95s going on Insider Buying News with CEO buying over 3.2 Million shares! Potential up to 10 per share projected this year. Stay tuned! UNDERVALUED JPMORGAN LOWFLOAT HUTN</t>
-  </si>
-  <si>
-    <t>What did we learn at VFB 2018 Investors event ? More than 30 CEOs came to explain their company growth strategy. Read what we learned... VlFedBeleggers investing jpmorgan StockMarket</t>
-  </si>
-  <si>
-    <t>Amanda Donahue</t>
-  </si>
-  <si>
-    <t>JPMorgan Reportedly Mulls Spinning Off Quorum Blockchain Project Readmore :  vitalikbuterin tylerwinklevoss Cointelegraph Crypto_goat_ DCGco</t>
-  </si>
-  <si>
-    <t>CoinDelite - Latest Bitcoin News and Press Release</t>
-  </si>
-  <si>
-    <t>here are Advertisers for Facebook that enable teen Suicides Ford Hsbc ANHEUSER McDonalds Nike TurnerTv JPMorgan CITIBANK Starbucks Loreal Disney Dell Samsung Nestle Ebay Verizon EA ProcterAndGamble deletefacebook</t>
-  </si>
-  <si>
-    <t>yemekyapmak</t>
-  </si>
-  <si>
-    <t>Aly_Raisman Just watched the replay of your fireside chat with jpmorgan Women on the Move. You are amazing and inspiring! Thank you! WomenOnTheMove JPMorgan</t>
-  </si>
-  <si>
-    <t>Big Banks are Beginning to Adopt Bitcoin and RippleTo read latest news visit  Ripple Bitcoin JPMorgan cryptocurrency ShidanGouran Blockchain DarrenMarble Bank</t>
-  </si>
-  <si>
-    <t>[blokt] - Bitcoin, Blockchain &amp; Cryptocurrency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPMorgan Reportedly Mulls Spinning Off Quorum Blockchain Project - </t>
-  </si>
-  <si>
-    <t>Jack Kelly</t>
-  </si>
-  <si>
-    <t>HUTN 1- CEO Confirms multiple news updates to follow. We are projecting a potential target of up to 10 per share or better this year. Stay tuned! UNDERVALUED JPMORGAN LOWFLOAT HUTN</t>
-  </si>
-  <si>
-    <t>Lawrence Brewer #FBPE For Brexit Pro Exit.</t>
-  </si>
-  <si>
-    <t>JPMorgan Dives into Blockchain Market</t>
-  </si>
-  <si>
-    <t>Robots Arent Quite Ready to Replace Wall Streets Salespeople Trading Trade Bloomberg Stock Bond Research Analyst WallStreet Salespeople JPMorgan Amazon Alexa</t>
-  </si>
-  <si>
-    <t>Gani</t>
-  </si>
-  <si>
-    <t>Remainiacs, so funny. We lost. Despite 9 million of tax payers money, GoldmansSachs JPMorgan Citigroup the EU, the MSM, so called economic experts, elitists etc. You lost.</t>
-  </si>
-  <si>
-    <t>Temporal Eternity</t>
-  </si>
-  <si>
-    <t>BOVET MENS AMADEO FLEURIER 19 THIRTY 42MM BROWN MECHANICAL WATCH NTR0013  Kendal cat JPMorgan LeBronJames 45</t>
+    <t>Everyone who reads this tweet should switch banks. JP Morgan Chase is awful. Customer Service doesn't exist. Anyone who works for chasesupport has the world's easiest job. All they do is clock in, sit around for 8 hours and clock out. useless ktla cbsnews</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Chase is this a real email address/domain? I got an email for advance tix to the Laver Cup but no code? chasesupport</t>
+  </si>
+  <si>
+    <t>CAFFREY</t>
+  </si>
+  <si>
+    <t>Chase ChaseChaseSupport ChaseSupportFYI...ChaseSUCKS</t>
+  </si>
+  <si>
+    <t>bella</t>
+  </si>
+  <si>
+    <t>ILLEGAL TO PRACTICE MEDICINE WITHOUT LEGAL USA MEDICAL LICENSE&amp;ONLY IN USA MEDICAL FACILITY.MEDICAL RECORDS CAN ONLY BE VIEWED INSIDE USA MEDICAL FACILITY WITH PATIENT'S PERMISSION &amp;KNOWLEDGE! U NEVER HAVE LEGAL USA MEDICAL LICENSE&amp;NEVER</t>
+  </si>
+  <si>
+    <t>Nancy Oliva</t>
+  </si>
+  <si>
+    <t>ChaseSupport I referred 2 friends to the Chase Sapphire Reserve Card and never received the rewards points chasesupport</t>
+  </si>
+  <si>
+    <t>NickDParson</t>
+  </si>
+  <si>
+    <t>ChaseSupport how about supporting your customer and returning my 2800 that was STOLEN when my bank account was hacked!!! Next stop, the New York news! Give me my !</t>
+  </si>
+  <si>
+    <t>chase Going on day 40 of trying to get your bank to process a payoff check from progressive. Still no results. Still no help. Latest help from ChaseSupport "Call the Auto Finance Team". You mean the same team I have been calling for 40 days now with no results.</t>
+  </si>
+  <si>
+    <t>Chase via CFPB ignored my issue=I was told by ChaseSupport 2go2 address (not BBB accredited) in LosAngelesCA USA (I'm not from LA so I didn't go) 2collect monies Chase owed me.In 2014 Chase LVNV refused 2change my acct from CA USA one to LVNV USA onechaseSUCKS</t>
+  </si>
+  <si>
+    <t>joe stuck</t>
+  </si>
+  <si>
+    <t>I believe ChaseSupport DM etc just collects customer's info to steal any/all identities etc... ChaseCustomerCallCenter (NEVER WAS/NEVER CAFFREY)was outsourced to Phillipines etc...not safe for USA customers&amp;maybe other countries.I am born in USA..always USA.chasesucks</t>
+  </si>
+  <si>
+    <t>Mark Riggs</t>
+  </si>
+  <si>
+    <t>ChaseSupport does the chase Sapphire include Priority Pass lounge access? ChaseSupport prioritypass</t>
+  </si>
+  <si>
+    <t>Chase Support</t>
+  </si>
+  <si>
+    <t>ChaseSupport I have received emails from the following email addresses asking me to update my Chase account information. The emails contain the Chase logo.bairrobemy.dom.edu / keitkelsmy.dom.edu</t>
+  </si>
+  <si>
+    <t>We Are Anonymous</t>
+  </si>
+  <si>
+    <t>While it is true we aren't into SportsBall, we are really into Bubble Soccer. Everyone can clearly see who the winner was. ChaseSupport. ^JD</t>
+  </si>
+  <si>
+    <t>Chase ChaseSupport jpmorgan nytimes chicagotribuneWe find it funny CHASE would inform their manager David Cota to disable their Facebook and protect their Twitter feed to hide the fact he had unprofessional social media. He works at CHASE login ChaseSupport JPMorgan</t>
+  </si>
+  <si>
+    <t>Chase ChaseSupport jpmorgan Why does one of your CHASE managers HAVE SO MUCH INAPPROPIATE PUBLIC CONTENT ON THEIR FACEBOOK PAGE?? unprofessional CHASE JPMorgan ChaseSupport</t>
+  </si>
+  <si>
+    <t>Jeff H</t>
+  </si>
+  <si>
+    <t>Chase ChaseSupportOne of your very own active managers talking about whores and vaginas. unprofessional CHASE As a shareholder I'm in shock.CHASE ChaseSupport JPMorgan NewYorkTimes ChicagoTribune pic.twitter.com/Df0bUBVTg2</t>
+  </si>
+  <si>
+    <t>Romy TaTanka</t>
+  </si>
+  <si>
+    <t>ChaseSupport I understand IF I had ChasePay , I would do that.I expect ChaseSupport to have access to a master list of the participating merchants and tell me if BostonMarket participates.That is what it is going to take for me to sign up for ChasePay .</t>
+  </si>
+  <si>
+    <t>chasesupport</t>
+  </si>
+  <si>
+    <t>earaney</t>
+  </si>
+  <si>
+    <t>.ChaseSupport jpmorgan ...ChaseSupport DID NOT RESPOND TO MY DM'S. POOR CUSTOMER SERVICE AND THEY CANNOT HANDLE TRUTHS.bbb_us FTC</t>
+  </si>
+  <si>
+    <t>Reddoggfogg</t>
+  </si>
+  <si>
+    <t>JPMorgan ATM takes money from my checkingAccount without giving me cash. ChaseSupport tells me it is my problem. badcustomerservice.</t>
+  </si>
+  <si>
+    <t>Scott Cohen</t>
+  </si>
+  <si>
+    <t>ChaseSupport Error message is "We're temporarily unable to to connect to Chase. Please try again later. Thanks for your patience."</t>
+  </si>
+  <si>
+    <t>Kevin Quinn</t>
+  </si>
+  <si>
+    <t>united charge bag when I've got your card. Next time choice is No United. badcustomerservice badcustomerexperience chasesupport united</t>
+  </si>
+  <si>
+    <t>Daniel Redmond</t>
+  </si>
+  <si>
+    <t>Chase You're losing a customer of 25 yrs for allowing authorizations from an old card. Gave u 3 chances. chasesupport</t>
+  </si>
+  <si>
+    <t>chasesupport stop wire to bofa_help account 000277424196. fraudalert . chase,BofA_Help</t>
+  </si>
+  <si>
+    <t>But apparently, chasesupport doesn't provide "great service" when needed. Phone for 3 hours!!! Manila to Tempe, where next? fraudalert</t>
+  </si>
+  <si>
+    <t>I'M THE ONLY CAFFREY</t>
+  </si>
+  <si>
+    <t>chasesupport is needed on the weekend now to stop fraud in progress and we are getting the runaround. fraudalert. c'mon jamiedimon</t>
+  </si>
+  <si>
+    <t>July 26th</t>
+  </si>
+  <si>
+    <t>.realDonaldTrump WHY DID JPMorgan ChaseSupport RIP ME OFF  ( I COLLECT SSA) &amp; WANT ME TO TAKE THIS ISSUE TO CarsonCity NV(1/2)</t>
+  </si>
+  <si>
+    <t>C. A. Geronimo</t>
+  </si>
+  <si>
+    <t>Chase Support is the best ! Thanks for the help and information ChaseSupport a</t>
+  </si>
+  <si>
+    <t>Infinity Reflections</t>
+  </si>
+  <si>
+    <t>Chase &amp; ChaseSupport engages in illegal activities; sent accounts to AllTrans Financial, Alltrans sends letters but then Chase dishonors!</t>
+  </si>
+  <si>
+    <t>SarjeantsOnFire</t>
+  </si>
+  <si>
+    <t>ChaseSupport I really need help and the caller hung up on me ChaseSupport ChaseBank Chase Chase</t>
+  </si>
+  <si>
+    <t>Larken S. Akins</t>
+  </si>
+  <si>
+    <t>AllianzTravelUS is eclaims your subsidiary? ChaseSupport chasesupport chasesapphirereservecard</t>
+  </si>
+  <si>
+    <t>aikox2</t>
+  </si>
+  <si>
+    <t>ChaseSupport 35th &amp; King Drive in Chicago is inconsiderate to its residents! ATM closes when bank closes? Why it's separated from the bank!</t>
+  </si>
+  <si>
+    <t>Wrote to corporate chase and they don't even respond. customer service is useless. chasesucks chase chasesupport chasesupport jpmorgan</t>
+  </si>
+  <si>
+    <t>Ramesh Kondapalli</t>
+  </si>
+  <si>
+    <t>Why doesn't ChaseSupport reply to tweets? Why doesn't chase reply to tweets? why do they cheat their customers? chasesupport chasesucks</t>
+  </si>
+  <si>
+    <t>Robert Fishberg</t>
+  </si>
+  <si>
+    <t>At this age..Chase take 7days to send a referral e-mail.. Wow so lightning fast!!ChaseSupport</t>
+  </si>
+  <si>
+    <t>Somesh Maheshwari</t>
+  </si>
+  <si>
+    <t>Using Chase travel was a horrible experience today. American Express far better.chase chasesupport</t>
+  </si>
+  <si>
+    <t>Louis LaDuron</t>
+  </si>
+  <si>
+    <t>Chase SapphireReserve cheating on promised benefits. Pathetic customer experience ChaseSupport.</t>
+  </si>
+  <si>
+    <t>Ricky H</t>
+  </si>
+  <si>
+    <t>ChaseSupport How do i go about canceling my credit card?</t>
+  </si>
+  <si>
+    <t>Shamil Turner</t>
+  </si>
+  <si>
+    <t>&gt;780 Fico score &lt;1% credit line used, CPC,preapprved and still rejected for Freedom credit card?Felt like almost insult CHASE ChaseSupport</t>
+  </si>
+  <si>
+    <t>Mia Pompi</t>
+  </si>
+  <si>
+    <t>I need my full transactions for 2016 in a CSV, you have the data, please make it for me ChaseSupport</t>
+  </si>
+  <si>
+    <t>Fae</t>
+  </si>
+  <si>
+    <t>chasesupportNeed to speak to someone regarding serious subject involved with chase. Need immediate help.....</t>
+  </si>
+  <si>
+    <t>Carrie McCully</t>
+  </si>
+  <si>
+    <t>chase chasesupport</t>
+  </si>
+  <si>
+    <t>ChaseSupport AntiAmerican.All outsourced support for US. I ask EZ ??? Chase"ATM can't give you 8K  Airport" Me; WTF R U talking about?</t>
+  </si>
+  <si>
+    <t>Adiee</t>
+  </si>
+  <si>
+    <t>ChaseSupport ChaseBank They would rather see a person die than issue an emergency pin. Can't hire from the US, Were all of the branches R?</t>
+  </si>
+  <si>
+    <t>Elisa Pouncey</t>
+  </si>
+  <si>
+    <t>ChaseSupport why is it taking so long to receive my cash back?</t>
+  </si>
+  <si>
+    <t>Papa on Maui</t>
+  </si>
+  <si>
+    <t>The worst customer service experience ever. Many phone calls, faxes they NEVER get and still no resolution. 2 mo! chasesupport</t>
+  </si>
+  <si>
+    <t>Jeff Brown</t>
+  </si>
+  <si>
+    <t>Mele Kalikimaka to everyone at ChaseSupport</t>
+  </si>
+  <si>
+    <t>if ChaseSupport tweets are in my feed when I wake up, doesn't that mean I have major problems?</t>
+  </si>
+  <si>
+    <t>Shelly Koehler</t>
+  </si>
+  <si>
+    <t>The best part of waking up is ChaseSupport tweets in your feed. ^DS</t>
+  </si>
+  <si>
+    <t>THEASSGIRL</t>
+  </si>
+  <si>
+    <t>Suppose to 5 days ago now... shame on you chasebank chasesupport You are risking this buyer loosing their 1st home !!kingdombusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you chasesupport for suggesting I go to my local Chase and do exactly what I already did. Im not sure if... </t>
+  </si>
+  <si>
+    <t>K.LIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some things cause this more than others. Thanks chasesupport for helping me with my issue and suggesting I go... </t>
+  </si>
+  <si>
+    <t>Robert Redmond</t>
+  </si>
+  <si>
+    <t>Still waiting for response about Chase Quick Pay website not working on my homepage. Where is ChaseSupport??? chasesupport</t>
+  </si>
+  <si>
+    <t>Rosabran-in-the-mix</t>
+  </si>
+  <si>
+    <t>Breaking up with chase Treated bad today. Beware bal xfer offers. Charged interest on ann fee. Losing customer over 72 cents. ChaseSupport</t>
+  </si>
+  <si>
+    <t>Tony Caruso</t>
+  </si>
+  <si>
+    <t>I close the account on ChaseBank ChaseSupport ChaseBank my mom myself and son people don't bank with them no more bad customer service.</t>
+  </si>
+  <si>
+    <t>Tosha</t>
+  </si>
+  <si>
+    <t>ChaseSupport 20 min on hold with the Fraud department only to be disconnected. Are you kidding me chasesupport? Step your game up.</t>
+  </si>
+  <si>
+    <t>John Riddle</t>
+  </si>
+  <si>
+    <t>thank you so much! chasebankisthebest thankyou chasesupport customerservice</t>
+  </si>
+  <si>
+    <t>david gutkin</t>
+  </si>
+  <si>
+    <t>Chase/Marriott, the ladies from ChaseSupport/MarriottRewards who just helped resolve an issue were great. Thank you! CustomerService</t>
+  </si>
+  <si>
+    <t>Sagar Lakhani</t>
+  </si>
+  <si>
+    <t>Worst home refinance experience! Was supposed to close today but they never sent docs to notary! loan: N4SPON4O4S chasebank chasesupport</t>
+  </si>
+  <si>
+    <t>ZehraGunalp Chase ChaseQuickPay is truly the greatest! ChaseSupport ChaseSupport Support QuickPay Fast Easy Convenient Quick</t>
+  </si>
+  <si>
+    <t>mike obrien</t>
+  </si>
+  <si>
+    <t>concreteshoes ChaseQuickPay can work! Give it another chance! Chase ChaseSupport ChaseHelp ChaseBank JPMorganChase</t>
+  </si>
+  <si>
+    <t>chasesupport website is not working can't log in</t>
+  </si>
+  <si>
+    <t>deniseacreighton</t>
+  </si>
+  <si>
+    <t>payo_madrid Chase True! Chase QuickPay is truly super fast, convenient, &amp; easy to use! ChaseSupport ChaseSupport</t>
+  </si>
+  <si>
+    <t>Jessie Rose</t>
+  </si>
+  <si>
+    <t>CHASEBank holding hostagenoreplychase chase chasesupport.trying to get atmreplacedsince10/21 incompetent executive office no reply</t>
+  </si>
+  <si>
+    <t>Talmage Holt</t>
+  </si>
+  <si>
+    <t>ChaseSupport this is how long it takes ChaseBank to open a fraud claim - 276 minutes!!!</t>
+  </si>
+  <si>
+    <t>@Magnacious</t>
+  </si>
+  <si>
+    <t>Chase delawareonline How about Chase Chasesupport assisting their customers by supporting UWP Windows Phone App? Wouldn't that be nice</t>
+  </si>
+  <si>
+    <t>Ent. Manager</t>
+  </si>
+  <si>
+    <t>ChaseSupport usopen Thanks for being so nice today &amp; trying to help a girl out! ChaseSupport</t>
+  </si>
+  <si>
+    <t>Jim Day</t>
+  </si>
+  <si>
+    <t>Chase ChaseSmallBiz ChaseSupport ChaseSmallBiz ChaseSupport</t>
+  </si>
+  <si>
+    <t>ChaseSupport. You have to have an IQ less than 12 to be a customer service at Chase</t>
+  </si>
+  <si>
+    <t>Jonathan Roberts</t>
+  </si>
+  <si>
+    <t>ChaseSupport is FRAUD! They do not have customer support!!!!</t>
+  </si>
+  <si>
+    <t>Anoop Mohan</t>
+  </si>
+  <si>
+    <t>Chase bank, it is an awful idea to replace your tellers with machines. You say it is more convenient but it is not! chasebank chasesupport</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>superb to see chase social media support to its customer. Good work chasesupport</t>
+  </si>
+  <si>
+    <t>klnMEsoftly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChaseSupport Chase Bank rap for GeekTweekLLC" by ThaOfficialMac -  Vote ChaseSmallBiz - </t>
+  </si>
+  <si>
+    <t>Sebastian Muoz</t>
+  </si>
+  <si>
+    <t>Hello chasesupport, me again...Website is down again? This is two or three times this month. What is going on there? chase chasesupport</t>
+  </si>
+  <si>
+    <t>Nico Scatino</t>
+  </si>
+  <si>
+    <t>Been 2 weeks &amp; no one, I mean NO ONE CHASE has a real reason &amp; solution for my 1838. UNREAL! chasesupport chasesucks</t>
+  </si>
+  <si>
+    <t>David Jordan</t>
+  </si>
+  <si>
+    <t>Watching the NHLPlayoffs and I just want to give a big shout out to ChaseSupport, your commercial is fucking annoying!!!!!!</t>
+  </si>
+  <si>
+    <t>Amanda LaPenta</t>
+  </si>
+  <si>
+    <t>Chasebank Chasesupport must be racist! They require a drivers license before you can make a cash deposit.</t>
+  </si>
+  <si>
+    <t>JBosLP</t>
+  </si>
+  <si>
+    <t>ChaseSupport I've been on hold for nearly 30 minutes. Are you trying to make it impossible to pay you!</t>
+  </si>
+  <si>
+    <t>ChaseSupport ^EN it was a pleasure to work w/ U as well. ChaseSupport has the customer relations concept cornered. SapphirePreferredCard</t>
+  </si>
+  <si>
+    <t>Gary Hubbell</t>
+  </si>
+  <si>
+    <t>Why ChaseSupport is top of class. ChaseSupport: I can certainly help rush a new card to you. To start, please DM your name and zip code.</t>
+  </si>
+  <si>
+    <t>TashaRandall chasesupport can't be bothered to pick up the phone.</t>
+  </si>
+  <si>
+    <t>rankincompetence = ChaseBank. No email, revolving door chasesupport, pitiful communication. 10 months and no resolution. deedinlieu</t>
+  </si>
+  <si>
+    <t>Herlindo</t>
+  </si>
+  <si>
+    <t>Working on a deed-in-lieu with Chase Started in April 2014. Countless phone calls, pitiful customersupport. Still not done chasesupport</t>
+  </si>
+  <si>
+    <t>Mike Nike</t>
+  </si>
+  <si>
+    <t>Just called chasesupport and they hung up after 15 minutes hold time. Come on Chase.</t>
+  </si>
+  <si>
+    <t>mdashiell</t>
+  </si>
+  <si>
+    <t>Batya Hernandez</t>
+  </si>
+  <si>
+    <t>Come on ChaseSupport Get your site back up! Paying bills fools!</t>
+  </si>
+  <si>
+    <t>ChaseSupport maybe the coffee maker didn't work? I cant access my accounts. sos chasesupport what happened?</t>
+  </si>
+  <si>
+    <t>Rajeev Dave</t>
+  </si>
+  <si>
+    <t>ChaseSupport not a good time to have your website go down. Trying to pay bills and access accounts!!!! chasebank</t>
+  </si>
+  <si>
+    <t>Patricia Champion</t>
+  </si>
+  <si>
+    <t>chasesupport chase -  from Safari goes to mobile site</t>
+  </si>
+  <si>
+    <t>Derrick Martin</t>
+  </si>
+  <si>
+    <t>Still frustrated with chaseshortsaledept and chasesupport 5 moths to get a decision talking about incompetence</t>
+  </si>
+  <si>
+    <t>Alexis Hinde</t>
+  </si>
+  <si>
+    <t>chasesupport im serving in iraq and cannot call you guys and my card is getting declined?? I need help</t>
+  </si>
+  <si>
+    <t>John A</t>
+  </si>
+  <si>
+    <t>Chase here's an awesome story from my husband about customer service from ChaseSupport -  chase chasesupport :)</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>chasesupport Addressed my concern. Thank you for taking the time to actually look into the matter instead of shooting out a canned response</t>
+  </si>
+  <si>
+    <t>richvalle</t>
+  </si>
+  <si>
+    <t>ChaseSupport chase sucks I cant deposit 200 cash 2 my daughter because I don't have account? I'm done with chase n glad you have troubles</t>
+  </si>
+  <si>
+    <t>Kelsye Nelson</t>
+  </si>
+  <si>
+    <t>Chase continues to cost an investor daily interest! chase fails - 5+people can't complete 1 file chasesupport lenders investors</t>
+  </si>
+  <si>
+    <t>Shelly Ortiz</t>
+  </si>
+  <si>
+    <t>Chase bank system is totally down. Can't even get my info when I call. SO BAD. Rep had no idea how I can find out my balance. chasesupport</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>After 3 months still waiting for chasesupport to get it together, hope my clients don't walk FRUSTRATED</t>
+  </si>
+  <si>
+    <t>acg</t>
+  </si>
+  <si>
+    <t>KennyQuirk, happy to help! We're here with ChaseSupport if you need further assistance. ^JS</t>
   </si>
 </sst>
 </file>
@@ -876,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -948,546 +954,546 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
         <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" t="s">
         <v>104</v>
-      </c>
-      <c r="B58" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" t="s">
         <v>106</v>
-      </c>
-      <c r="B59" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
         <v>108</v>
-      </c>
-      <c r="B60" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1503,44 +1509,44 @@
         <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B83" t="s">
         <v>148</v>
@@ -1556,26 +1562,26 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1583,103 +1589,95 @@
         <v>154</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B97" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
